--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -1749,7 +1749,7 @@
         <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
@@ -1789,7 +1789,7 @@
         <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66">

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
     <t>dataMorte</t>
   </si>
   <si>
+    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+  </si>
+  <si>
     <t>Ora</t>
   </si>
   <si>
@@ -384,6 +393,9 @@
   </si>
   <si>
     <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -478,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,6 +502,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -511,65 +524,77 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -591,2825 +616,3251 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,31 +32,34 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita del figlio che viene riconosciuto</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -617,3250 +620,3250 @@
         <v>5</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="142">
   <si>
     <t>Sezione</t>
   </si>
@@ -47,6 +47,9 @@
     <t/>
   </si>
   <si>
+    <t>Autorizzazione del tribunale</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -269,7 +272,7 @@
     <t>dataMorte</t>
   </si>
   <si>
-    <t>{evento.datiEventoRiconoscimento.preMorto,=,false}</t>
+    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
   </si>
   <si>
     <t>Ora</t>
@@ -398,7 +401,7 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -493,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -505,7 +508,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="48.83984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -556,13 +559,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -579,13 +582,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -601,3269 +604,3292 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E86" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>20</v>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="148">
   <si>
     <t>Sezione</t>
   </si>
@@ -287,22 +287,40 @@
     <t>minutoMorte</t>
   </si>
   <si>
-    <t>stato</t>
+    <t>Stato di morte</t>
   </si>
   <si>
     <t>idStatoMorte</t>
   </si>
   <si>
-    <t>provincia</t>
+    <t>Stato di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte</t>
+  </si>
+  <si>
+    <t>idProvinciaMorte</t>
+  </si>
+  <si>
+    <t>Provincia di morte - Descrizione</t>
   </si>
   <si>
     <t>siglaProvinciaMorte</t>
   </si>
   <si>
-    <t>comune</t>
+    <t>Comune di morte</t>
   </si>
   <si>
     <t>idComuneMorte</t>
+  </si>
+  <si>
+    <t>Comune di morte - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneMorte</t>
   </si>
   <si>
     <t>indirizzo</t>
@@ -496,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2477,10 +2495,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2491,88 +2509,88 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2583,19 +2601,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2606,19 +2624,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2629,19 +2647,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2652,19 +2670,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2675,19 +2693,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2698,19 +2716,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2721,19 +2739,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2744,19 +2762,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2767,19 +2785,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2790,19 +2808,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2813,19 +2831,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2836,19 +2854,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2859,19 +2877,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2882,19 +2900,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2905,19 +2923,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2928,19 +2946,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2951,19 +2969,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2974,19 +2992,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2997,19 +3015,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3020,19 +3038,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3043,19 +3061,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3066,16 +3084,16 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>112</v>
@@ -3089,7 +3107,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>113</v>
@@ -3098,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>114</v>
@@ -3112,7 +3130,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>115</v>
@@ -3121,7 +3139,7 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>116</v>
@@ -3135,7 +3153,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>117</v>
@@ -3144,10 +3162,10 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3158,19 +3176,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3181,19 +3199,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3204,19 +3222,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3227,22 +3245,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>21</v>
@@ -3250,22 +3268,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>21</v>
@@ -3273,591 +3291,591 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>139</v>
@@ -3871,7 +3889,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>140</v>
@@ -3880,7 +3898,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>141</v>
@@ -3889,6 +3907,75 @@
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -176,6 +176,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -395,22 +401,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -514,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1313,19 +1319,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1336,19 +1342,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1359,19 +1365,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1382,19 +1388,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1405,19 +1411,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1428,19 +1434,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1451,19 +1457,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1474,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1497,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1520,19 +1526,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1543,19 +1549,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,19 +1572,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1589,19 +1595,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1612,19 +1618,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1635,19 +1641,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1658,19 +1664,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1681,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1704,19 +1710,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1756,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1779,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1802,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1828,19 @@
         <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>21</v>
@@ -1845,7 +1851,7 @@
         <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
@@ -1854,7 +1860,7 @@
         <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1865,22 +1871,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>21</v>
@@ -1888,19 +1894,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1911,19 +1917,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1934,19 +1940,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1957,19 +1963,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1980,22 +1986,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -2003,19 +2009,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2026,19 +2032,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -2049,19 +2055,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2072,22 +2078,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2095,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2118,19 +2124,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2141,19 +2147,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2164,19 +2170,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2187,19 +2193,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2210,19 +2216,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2233,19 +2239,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2256,19 +2262,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2302,19 +2308,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,22 +2334,22 @@
         <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -2351,22 +2357,22 @@
         <v>82</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
@@ -2374,292 +2380,292 @@
         <v>82</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2670,19 +2676,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2693,19 +2699,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2716,19 +2722,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2739,19 +2745,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2762,19 +2768,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2785,19 +2791,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2808,19 +2814,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2831,19 +2837,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2854,19 +2860,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2877,19 +2883,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2900,19 +2906,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2923,19 +2929,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2946,19 +2952,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2992,19 +2998,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3015,19 +3021,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3038,19 +3044,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3061,19 +3067,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,16 +3093,16 @@
         <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,16 +3116,16 @@
         <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,16 +3139,16 @@
         <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3156,16 +3162,16 @@
         <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3176,19 +3182,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3222,19 +3228,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3245,19 +3251,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3268,19 +3274,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3291,19 +3297,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3314,22 +3320,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>21</v>
@@ -3337,22 +3343,22 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>21</v>
@@ -3360,622 +3366,737 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="E146" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E148" s="2" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E149" s="2" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="E150" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -425,7 +425,10 @@
     <t>evento.interprete</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -532,7 +535,7 @@
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="47.45703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3967,7 +3970,7 @@
         <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
@@ -3987,19 +3990,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4013,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4033,10 +4036,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
@@ -4045,7 +4048,7 @@
         <v>19</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4056,10 +4059,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
@@ -4068,7 +4071,7 @@
         <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4079,10 +4082,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4091,7 +4094,7 @@
         <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3970,7 +3967,7 @@
         <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
@@ -3990,19 +3987,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4013,19 +4010,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4036,10 +4033,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
@@ -4048,7 +4045,7 @@
         <v>19</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4059,10 +4056,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
@@ -4071,7 +4068,7 @@
         <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4082,10 +4079,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4094,7 +4091,7 @@
         <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3967,7 +3970,7 @@
         <v>135</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
@@ -3987,19 +3990,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4010,19 +4013,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4033,10 +4036,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>14</v>
@@ -4045,7 +4048,7 @@
         <v>19</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4056,10 +4059,10 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>14</v>
@@ -4068,7 +4071,7 @@
         <v>108</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4079,10 +4082,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
@@ -4091,7 +4094,7 @@
         <v>108</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -258,6 +258,36 @@
   </si>
   <si>
     <t>evento.padre</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Figlio</t>
@@ -523,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -533,7 +563,7 @@
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1874,22 +1904,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>21</v>
@@ -1897,19 +1927,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1920,19 +1950,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1943,19 +1973,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1966,19 +1996,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1989,22 +2019,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -2012,19 +2042,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2035,22 +2065,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2058,19 +2088,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2081,22 +2111,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2104,19 +2134,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2157,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2150,22 +2180,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2173,19 +2203,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2196,22 +2226,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2219,19 +2249,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2242,19 +2272,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2265,19 +2295,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2288,19 +2318,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2311,19 +2341,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2334,19 +2364,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2357,19 +2387,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2380,19 +2410,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2403,479 +2433,479 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E85" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2886,19 +2916,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2909,19 +2939,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2932,19 +2962,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2955,19 +2985,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2978,19 +3008,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3001,19 +3031,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3024,19 +3054,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3047,19 +3077,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3070,19 +3100,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3093,19 +3123,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3116,19 +3146,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3139,19 +3169,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3162,19 +3192,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3185,19 +3215,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3208,19 +3238,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,19 +3261,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3254,19 +3284,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3277,19 +3307,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3300,19 +3330,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3323,19 +3353,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3346,19 +3376,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3369,19 +3399,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3392,22 +3422,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>21</v>
@@ -3415,22 +3445,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>21</v>
@@ -3438,19 +3468,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3461,645 +3491,852 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="C160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -128,6 +128,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -182,13 +188,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -296,196 +302,124 @@
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>Dati Riconoscimento - Dati di morte</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>evento.datiDiMorte</t>
-  </si>
-  <si>
-    <t>dataMorte</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.preMorto,=,false</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>oraMorte</t>
-  </si>
-  <si>
-    <t>minuti</t>
-  </si>
-  <si>
-    <t>minutoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte</t>
-  </si>
-  <si>
-    <t>idStatoMorte</t>
-  </si>
-  <si>
-    <t>Stato di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeStatoMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte</t>
-  </si>
-  <si>
-    <t>idProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Provincia di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte</t>
-  </si>
-  <si>
-    <t>idComuneMorte</t>
-  </si>
-  <si>
-    <t>Comune di morte - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneMorte</t>
-  </si>
-  <si>
-    <t>indirizzo</t>
-  </si>
-  <si>
-    <t>indirizzoMorte</t>
-  </si>
-  <si>
-    <t>Dati prodotti</t>
+    <t>Dati Riconoscimento - Generalità discendenti</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
+  </si>
+  <si>
+    <t>Atto Nascita Figlio</t>
+  </si>
+  <si>
+    <t>Id atto</t>
+  </si>
+  <si>
+    <t>evento.datiEventoRiconoscimento.attoNascita</t>
+  </si>
+  <si>
+    <t>idAnsc</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
+  </si>
+  <si>
+    <t>Interprete</t>
+  </si>
+  <si>
+    <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Condizioni dichiarante</t>
+  </si>
+  <si>
+    <t>evento.datiDichiarante</t>
+  </si>
+  <si>
+    <t>comprensione</t>
+  </si>
+  <si>
+    <t>Motivo impedimento scrittura</t>
+  </si>
+  <si>
+    <t>motivoImpedimentoScrittura</t>
+  </si>
+  <si>
+    <t>Presenza interprete</t>
+  </si>
+  <si>
+    <t>ausilioInterprete</t>
+  </si>
+  <si>
+    <t>Figlio premorto</t>
   </si>
   <si>
     <t>evento.datiEventoRiconoscimento</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
-  </si>
-  <si>
-    <t>Atto Nascita Figlio</t>
-  </si>
-  <si>
-    <t>Id atto</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.attoNascita</t>
-  </si>
-  <si>
-    <t>idAnsc</t>
-  </si>
-  <si>
-    <t>Provincia registrazione</t>
-  </si>
-  <si>
-    <t>idProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Provincia registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>siglaProvinciaRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione</t>
-  </si>
-  <si>
-    <t>idComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Comune registrazione - Descrizione</t>
-  </si>
-  <si>
-    <t>nomeComuneRegistrazione</t>
-  </si>
-  <si>
-    <t>Tipo evento</t>
-  </si>
-  <si>
-    <t>idtipocontenuto</t>
-  </si>
-  <si>
-    <t>Numero Comunale</t>
-  </si>
-  <si>
-    <t>Anno atto</t>
-  </si>
-  <si>
-    <t>annoAtto</t>
-  </si>
-  <si>
-    <t>Data atto</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
-  </si>
-  <si>
-    <t>Tipo registro</t>
-  </si>
-  <si>
-    <t>tipologia</t>
-  </si>
-  <si>
-    <t>Interprete</t>
-  </si>
-  <si>
-    <t>evento.interprete</t>
-  </si>
-  <si>
-    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
-    <t>Dettagli evento</t>
-  </si>
-  <si>
-    <t>Condizioni dichiarante</t>
-  </si>
-  <si>
-    <t>evento.datiDichiarante</t>
-  </si>
-  <si>
-    <t>comprensione</t>
-  </si>
-  <si>
-    <t>Motivo impedimento scrittura</t>
-  </si>
-  <si>
-    <t>motivoImpedimentoScrittura</t>
-  </si>
-  <si>
-    <t>Presenza interprete</t>
-  </si>
-  <si>
-    <t>ausilioInterprete</t>
-  </si>
-  <si>
-    <t>Figlio premorto</t>
   </si>
   <si>
     <t>preMorto</t>
@@ -553,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1375,19 +1309,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1398,19 +1332,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1421,19 +1355,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1444,19 +1378,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1467,19 +1401,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1490,19 +1424,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1513,19 +1447,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1536,19 +1470,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1559,19 +1493,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1582,19 +1516,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1605,19 +1539,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1628,19 +1562,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1651,19 +1585,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1674,19 +1608,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1697,19 +1631,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1720,19 +1654,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1743,19 +1677,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1766,19 +1700,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1789,19 +1723,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1812,19 +1746,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1835,19 +1769,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1858,19 +1792,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1881,19 +1815,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1904,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1927,19 +1861,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1950,19 +1884,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1973,19 +1907,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1996,19 +1930,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2019,22 +1953,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>21</v>
@@ -2042,19 +1976,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2065,22 +1999,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2088,19 +2022,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2045,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2068,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2091,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2180,22 +2114,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>21</v>
@@ -2203,19 +2137,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2226,22 +2160,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>21</v>
@@ -2249,22 +2183,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -2272,19 +2206,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2295,22 +2229,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>21</v>
@@ -2318,19 +2252,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2341,19 +2275,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2364,19 +2298,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2387,19 +2321,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2410,19 +2344,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2433,19 +2367,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2456,19 +2390,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2479,19 +2413,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2502,19 +2436,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2525,19 +2459,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2548,19 +2482,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2571,19 +2505,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2594,19 +2528,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2617,19 +2551,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,22 +2577,22 @@
         <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -2666,22 +2600,22 @@
         <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
@@ -2689,223 +2623,223 @@
         <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2916,19 +2850,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2939,19 +2873,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2896,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2985,19 +2919,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3008,19 +2942,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3031,19 +2965,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3054,19 +2988,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,19 +3011,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3100,19 +3034,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3123,19 +3057,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3146,19 +3080,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3169,19 +3103,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3192,19 +3126,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3215,19 +3149,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3238,19 +3172,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3261,19 +3195,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3284,19 +3218,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3307,19 +3241,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3330,19 +3264,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3353,19 +3287,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3376,19 +3310,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3399,19 +3333,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3422,19 +3356,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3445,19 +3379,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3468,22 +3402,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -3491,22 +3425,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>21</v>
@@ -3514,19 +3448,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3537,33 +3471,33 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>135</v>
+        <v>36</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
@@ -3572,44 +3506,44 @@
         <v>123</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
@@ -3618,67 +3552,67 @@
         <v>123</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>123</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>14</v>
@@ -3687,656 +3621,518 @@
         <v>123</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>147</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1332,19 +1338,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1355,19 +1361,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1378,19 +1384,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1401,19 +1407,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1424,19 +1430,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1447,19 +1453,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1470,19 +1476,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1493,19 +1499,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1516,19 +1522,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1539,19 +1545,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1562,19 +1568,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1683,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1867,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1953,19 +1959,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1999,22 +2005,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>21</v>
@@ -2022,19 +2028,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2045,22 +2051,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>21</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2143,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2166,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>21</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2275,22 +2281,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>21</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2534,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2603,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2626,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2646,16 +2652,16 @@
         <v>96</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2669,16 +2675,16 @@
         <v>96</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2692,16 +2698,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2718,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2735,19 +2741,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2764,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2856,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2879,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2902,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2925,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2971,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3017,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3040,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3063,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3086,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3198,16 +3204,16 @@
         <v>98</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3221,16 +3227,16 @@
         <v>98</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3244,16 +3250,16 @@
         <v>98</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3267,16 +3273,16 @@
         <v>98</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3362,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3402,22 +3408,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>21</v>
@@ -3425,22 +3431,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>21</v>
@@ -3448,19 +3454,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3471,668 +3477,783 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="E153" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -59,9 +59,24 @@
     <t>SI</t>
   </si>
   <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
     <t>197</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -200,6 +215,12 @@
     <t>nazionalita</t>
   </si>
   <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
+  </si>
+  <si>
     <t>Residenza non nota</t>
   </si>
   <si>
@@ -390,6 +411,9 @@
   </si>
   <si>
     <t>evento.interprete</t>
+  </si>
+  <si>
+    <t>195,196</t>
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
@@ -493,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -608,7 +632,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -624,3637 +648,3867 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C139" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E160" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G160" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="F169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>21</v>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -399,6 +399,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H173"/>
+  <dimension ref="A1:H174"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3783,7 +3789,7 @@
         <v>129</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>109</v>
@@ -3792,7 +3798,7 @@
         <v>130</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>26</v>
@@ -3800,605 +3806,605 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F143" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>137</v>
@@ -4407,36 +4413,36 @@
         <v>14</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
         <v>26</v>
@@ -4444,22 +4450,22 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>143</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G171" s="2" t="s">
         <v>26</v>
@@ -4467,7 +4473,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>144</v>
@@ -4476,10 +4482,10 @@
         <v>14</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4490,16 +4496,16 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>148</v>
@@ -4508,6 +4514,29 @@
         <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,12 +327,6 @@
   </si>
   <si>
     <t>evento.intestatari[0]</t>
-  </si>
-  <si>
-    <t>Dati Riconoscimento - Generalità discendenti</t>
-  </si>
-  <si>
-    <t>evento.datiEventoRiconoscimento.discendenti[0]</t>
   </si>
   <si>
     <t>Atto Nascita Figlio</t>
@@ -523,16 +517,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H174"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="41.359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.21875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="60.0859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="45.16796875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="42.60546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
@@ -2935,16 +2929,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2958,16 +2952,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2981,16 +2975,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3004,16 +2998,16 @@
         <v>105</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3027,16 +3021,16 @@
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3050,16 +3044,16 @@
         <v>105</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3073,16 +3067,16 @@
         <v>105</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3096,16 +3090,16 @@
         <v>105</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3119,16 +3113,16 @@
         <v>105</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3142,19 +3136,19 @@
         <v>105</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3165,19 +3159,19 @@
         <v>105</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3188,19 +3182,19 @@
         <v>105</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3211,16 +3205,16 @@
         <v>105</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3231,1312 +3225,714 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F172" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -3507,7 +3507,7 @@
         <v>63</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>132</v>
@@ -3530,7 +3530,7 @@
         <v>65</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>132</v>
@@ -3539,7 +3539,7 @@
         <v>66</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>134</v>

--- a/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
+++ b/docs/Mapping_casi_uso/riconoscimenti/Rico_020.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="153">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -517,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1523,19 +1535,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1558,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1581,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1592,19 +1604,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1615,19 +1627,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1638,19 +1650,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1661,19 +1673,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1696,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1719,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1742,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1765,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1788,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1811,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1834,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1845,19 +1857,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1868,19 +1880,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1891,19 +1903,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1914,19 +1926,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1937,19 +1949,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1960,19 +1972,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1983,19 +1995,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2006,19 +2018,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2029,19 +2041,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2052,19 +2064,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2075,19 +2087,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2098,19 +2110,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2121,19 +2133,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2144,19 +2156,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2167,19 +2179,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2190,19 +2202,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2213,19 +2225,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2236,22 +2248,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
@@ -2259,19 +2271,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2282,19 +2294,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2305,19 +2317,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2328,22 +2340,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>26</v>
@@ -2351,19 +2363,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2374,19 +2386,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2397,19 +2409,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2420,22 +2432,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>26</v>
@@ -2443,19 +2455,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2466,22 +2478,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>26</v>
@@ -2489,19 +2501,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2512,19 +2524,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2535,19 +2547,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2558,22 +2570,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>26</v>
@@ -2581,19 +2593,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2604,22 +2616,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>26</v>
@@ -2627,19 +2639,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2650,19 +2662,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2673,19 +2685,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2696,19 +2708,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2719,19 +2731,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2742,19 +2754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2765,19 +2777,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2788,19 +2800,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2811,19 +2823,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2834,19 +2846,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2857,19 +2869,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2880,19 +2892,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2903,19 +2915,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2926,19 +2938,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2949,19 +2961,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2972,19 +2984,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2995,19 +3007,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3018,19 +3030,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3041,19 +3053,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3064,19 +3076,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3087,19 +3099,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3110,19 +3122,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3133,22 +3145,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3156,22 +3168,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3179,22 +3191,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>26</v>
@@ -3202,19 +3214,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3225,714 +3237,898 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D144" s="2" t="s">
+      <c r="E144" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E146" s="2" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="E148" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F148" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>26</v>
       </c>
     </row>
